--- a/inst/unitTests/resources/testWorkbookReadWorksheet.xlsx
+++ b/inst/unitTests/resources/testWorkbookReadWorksheet.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8250"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="2" r:id="rId1"/>
     <sheet name="Test2" sheetId="1" r:id="rId2"/>
     <sheet name="Test3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>NumericColumn</t>
   </si>
@@ -34,6 +35,60 @@
   </si>
   <si>
     <t>World</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -387,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F11:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -615,4 +670,124 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D8:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="8" spans="4:7">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/unitTests/resources/testWorkbookReadWorksheet.xlsx
+++ b/inst/unitTests/resources/testWorkbookReadWorksheet.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8250" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8250" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="2" r:id="rId1"/>
     <sheet name="Test2" sheetId="1" r:id="rId2"/>
     <sheet name="Test3" sheetId="3" r:id="rId3"/>
     <sheet name="Test4" sheetId="4" r:id="rId4"/>
+    <sheet name="Test5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>NumericColumn</t>
   </si>
@@ -676,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D8:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -790,4 +791,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F17:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="17" spans="6:9">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>